--- a/reference/port_of_loading.xlsx
+++ b/reference/port_of_loading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cocoasourcech-my.sharepoint.com/personal/kgonciarz_cocoasource_ch/Documents/Documents/Audrey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cocoasourcech-my.sharepoint.com/personal/kgonciarz_cocoasource_ch/Documents/Documents/Audrey/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B6EE606-C9AA-42A7-9E1C-659569DEA4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0B6EE606-C9AA-42A7-9E1C-659569DEA4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6649F2A-0A9C-4B1F-972B-9DC0821DA85C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0DD21BCD-AD49-4887-AD75-948C7298FCF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0DD21BCD-AD49-4887-AD75-948C7298FCF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>ABIDJAN</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>port_of_loading2</t>
+  </si>
+  <si>
+    <t>LOME</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1966437-5F8A-4829-A12A-C14E88B9E91B}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +714,14 @@
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
